--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_11_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_11_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.372930331340769, 4.939806698425566]</t>
+          <t>[4.377366702434209, 4.9353703273321265]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.03475943570386164, 0.3556640711282615]</t>
+          <t>[0.03479477294837707, 0.35562873388374605]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.01822104860963591</v>
+        <v>0.01819703999426836</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01822104860963591</v>
+        <v>0.01819703999426836</v>
       </c>
       <c r="W2" t="n">
         <v>20.30522522522588</v>
